--- a/OnBoard/output/trust/catch/Catch_Trust_27.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_27.xlsx
@@ -1515,7 +1515,7 @@
         <v>0.217</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I28">
         <v>101.3853465346535</v>
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="G31">
-        <v>0.07199999999999999</v>
+        <v>0.036</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>101.3853465346535</v>
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="G32">
-        <v>0.017</v>
+        <v>0.053</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I32">
         <v>101.3853465346535</v>
@@ -1925,7 +1925,7 @@
         <v>0.535</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38">
         <v>101.3853465346535</v>
@@ -2007,7 +2007,7 @@
         <v>0.036</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40">
         <v>101.3853465346535</v>
